--- a/Loading/Equipment/CurrentCycle/Data/Equipment - Template.xlsx
+++ b/Loading/Equipment/CurrentCycle/Data/Equipment - Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbuck\Documents\Projects\NNWW\AssetWorks Conversion\Loading\Equipment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\REPOS\AssetWorksConversion\Loading\Equipment\CurrentCycle\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="ValidatedSource" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>EquipmentID</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>StationLocation</t>
+  </si>
+  <si>
+    <t>UserStatus1</t>
   </si>
 </sst>
 </file>
@@ -531,15 +534,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH1"/>
+  <dimension ref="A1:BI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -655,69 +658,72 @@
         <v>35</v>
       </c>
       <c r="AM1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -734,14 +740,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>

--- a/Loading/Equipment/CurrentCycle/Data/Equipment - Template.xlsx
+++ b/Loading/Equipment/CurrentCycle/Data/Equipment - Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidatedSource" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>EquipmentID</t>
   </si>
@@ -208,6 +208,39 @@
   </si>
   <si>
     <t>UserStatus1</t>
+  </si>
+  <si>
+    <t>2424</t>
+  </si>
+  <si>
+    <t>[KEY]</t>
+  </si>
+  <si>
+    <t>12359:3</t>
+  </si>
+  <si>
+    <t>12359:6</t>
+  </si>
+  <si>
+    <t>12359:17</t>
+  </si>
+  <si>
+    <t>12359:18</t>
+  </si>
+  <si>
+    <t>PMKey</t>
+  </si>
+  <si>
+    <t>PMServiceType</t>
+  </si>
+  <si>
+    <t>NextDueDate</t>
+  </si>
+  <si>
+    <t>NumberOfTimeUnits</t>
+  </si>
+  <si>
+    <t>TimeUnit</t>
   </si>
 </sst>
 </file>
@@ -249,11 +282,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,13 +574,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -734,31 +772,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
+      <c r="B1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Loading/Equipment/CurrentCycle/Data/Equipment - Template.xlsx
+++ b/Loading/Equipment/CurrentCycle/Data/Equipment - Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5796" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5796"/>
   </bookViews>
   <sheets>
     <sheet name="ValidatedSource" sheetId="1" r:id="rId1"/>
@@ -574,11 +574,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI1"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -774,15 +836,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/Loading/Equipment/CurrentCycle/Data/Equipment - Template.xlsx
+++ b/Loading/Equipment/CurrentCycle/Data/Equipment - Template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>EquipmentID</t>
   </si>
@@ -187,18 +187,6 @@
   </si>
   <si>
     <t>NextPMDueDate</t>
-  </si>
-  <si>
-    <t>IndividualPMService</t>
-  </si>
-  <si>
-    <t>IndividualPMDateNextDue</t>
-  </si>
-  <si>
-    <t>IndividualPMNumberofTimeUnits</t>
-  </si>
-  <si>
-    <t>IndividualPMTimeUnit</t>
   </si>
   <si>
     <t>Control</t>
@@ -572,11 +560,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI1"/>
+  <dimension ref="A1:BE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -636,15 +622,11 @@
     <col min="55" max="55" width="9" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -716,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>23</v>
@@ -758,7 +740,7 @@
         <v>35</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AN1" s="2" t="s">
         <v>36</v>
@@ -813,18 +795,6 @@
       </c>
       <c r="BE1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -836,9 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -852,42 +820,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
